--- a/biology/Histoire de la zoologie et de la botanique/Niles_Eldredge/Niles_Eldredge.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Niles_Eldredge/Niles_Eldredge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Niles Eldredge est un paléontologue américain, né le 25 août 1943. Il est l'auteur, avec Stephen Jay Gould, de la théorie de l'équilibre ponctué, proposée en 1972 dans un article intitulé Punctuated equilibrium : an alternative to phyletic gradualism au sein de l'ouvrage collectif Models in Paleobiology.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Niles Eldredge, Joel Cracraft, Phylogenetic patterns and the evolutionary process. Method and Theory in Comparative Biology, Columbia University Press, New York, VIII-349 p.,  (ISBN 023103802X)
 (en) Unfinished synthesis : biological hierarchies and modern evolutionary thought, Oxford University press, Oxford et New York, 1985, VIII-237 p.,  (ISBN 0-19-503633-6)
